--- a/sources/Finnish_data.xlsx
+++ b/sources/Finnish_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="742">
   <si>
     <t>language_no</t>
   </si>
@@ -2245,6 +2245,9 @@
   </si>
   <si>
     <t>Есть еще глагол nolostella, модель та же</t>
+  </si>
+  <si>
+    <t>GEN~NOM</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -2338,7 +2341,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2622,7 +2624,7 @@
   <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2744,15 +2746,15 @@
       <c r="L2" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>540</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -2791,15 +2793,15 @@
       <c r="L3" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>544</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="S3" s="5" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -2872,9 +2874,11 @@
         <v>547</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K5" s="5" t="s">
         <v>548</v>
       </c>
@@ -2926,15 +2930,15 @@
       <c r="L6" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -2973,15 +2977,15 @@
       <c r="L7" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>554</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="5" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -3054,9 +3058,11 @@
         <v>556</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>548</v>
       </c>
@@ -3097,9 +3103,11 @@
         <v>557</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K10" s="5" t="s">
         <v>548</v>
       </c>
@@ -3185,9 +3193,11 @@
         <v>561</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K12" s="5" t="s">
         <v>548</v>
       </c>
@@ -3239,15 +3249,15 @@
       <c r="L13" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>563</v>
-      </c>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="5"/>
+      <c r="S13" s="5" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -3275,9 +3285,11 @@
         <v>564</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K14" s="5" t="s">
         <v>548</v>
       </c>
@@ -3290,7 +3302,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -3329,15 +3341,15 @@
       <c r="L15" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>568</v>
-      </c>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="5" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -3382,7 +3394,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -3410,9 +3422,11 @@
         <v>570</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>548</v>
       </c>
@@ -3509,15 +3523,15 @@
       <c r="L19" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>575</v>
-      </c>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="5"/>
+      <c r="S19" s="5" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -3545,24 +3559,26 @@
         <v>576</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K20" s="5" t="s">
         <v>548</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>577</v>
-      </c>
+      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="5" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -3590,9 +3606,11 @@
         <v>578</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>548</v>
       </c>
@@ -3633,24 +3651,26 @@
         <v>579</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J22" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K22" s="5" t="s">
         <v>548</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>580</v>
-      </c>
+      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="5" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3689,15 +3709,15 @@
       <c r="L23" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>582</v>
-      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
+      <c r="S23" s="5" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -3742,7 +3762,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="5"/>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3772,20 +3792,22 @@
       <c r="I25" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>586</v>
+      </c>
       <c r="K25" s="5" t="s">
         <v>586</v>
       </c>
       <c r="L25" s="5"/>
-      <c r="M25" s="5" t="s">
-        <v>587</v>
-      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
+      <c r="S25" s="5" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
@@ -3858,9 +3880,11 @@
         <v>589</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>548</v>
       </c>
@@ -3901,9 +3925,11 @@
         <v>590</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K28" s="5" t="s">
         <v>548</v>
       </c>
@@ -3989,9 +4015,11 @@
         <v>592</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K30" s="5" t="s">
         <v>548</v>
       </c>
@@ -4004,7 +4032,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="5"/>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -4088,15 +4116,15 @@
       <c r="L32" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>595</v>
-      </c>
+      <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="5"/>
+      <c r="S32" s="5" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
@@ -4169,9 +4197,11 @@
         <v>597</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>548</v>
       </c>
@@ -4223,15 +4253,15 @@
       <c r="L35" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>599</v>
-      </c>
+      <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
+      <c r="S35" s="5" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -4270,15 +4300,15 @@
       <c r="L36" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>601</v>
-      </c>
+      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
+      <c r="S36" s="5" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -4306,9 +4336,11 @@
         <v>602</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K37" s="5" t="s">
         <v>548</v>
       </c>
@@ -4405,15 +4437,15 @@
       <c r="L39" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>605</v>
-      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -4486,9 +4518,11 @@
         <v>607</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K41" s="5" t="s">
         <v>548</v>
       </c>
@@ -4574,24 +4608,26 @@
         <v>609</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J43" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K43" s="5" t="s">
         <v>548</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>610</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -4621,20 +4657,22 @@
       <c r="I44" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="J44" s="5"/>
+      <c r="J44" s="5" t="s">
+        <v>586</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>586</v>
       </c>
       <c r="L44" s="5"/>
-      <c r="M44" s="5" t="s">
-        <v>612</v>
-      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="5" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
@@ -4662,24 +4700,26 @@
         <v>613</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K45" s="5" t="s">
         <v>548</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="M45" s="5" t="s">
-        <v>614</v>
-      </c>
+      <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="5"/>
+      <c r="S45" s="5" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
@@ -4763,15 +4803,15 @@
       <c r="L47" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>617</v>
-      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -4810,15 +4850,15 @@
       <c r="L48" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>610</v>
-      </c>
+      <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
+      <c r="S48" s="5" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
@@ -4891,9 +4931,11 @@
         <v>620</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K50" s="5" t="s">
         <v>548</v>
       </c>
@@ -4934,24 +4976,26 @@
         <v>621</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>548</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>622</v>
-      </c>
+      <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="5"/>
+      <c r="S51" s="5" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
@@ -4990,15 +5034,15 @@
       <c r="L52" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>627</v>
-      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -5082,15 +5126,15 @@
       <c r="L54" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="M54" s="5" t="s">
-        <v>632</v>
-      </c>
+      <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="5"/>
+      <c r="S54" s="5" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
@@ -5163,9 +5207,11 @@
         <v>635</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K56" s="5" t="s">
         <v>548</v>
       </c>
@@ -5217,15 +5263,15 @@
       <c r="L57" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>639</v>
-      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
+      <c r="S57" s="5" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
@@ -5309,15 +5355,15 @@
       <c r="L59" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>641</v>
-      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
+      <c r="S59" s="5" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
@@ -5356,15 +5402,15 @@
       <c r="L60" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>643</v>
-      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
+      <c r="S60" s="5" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
@@ -5448,15 +5494,15 @@
       <c r="L62" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>647</v>
-      </c>
+      <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
+      <c r="S62" s="5" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -5529,9 +5575,11 @@
         <v>649</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>548</v>
       </c>
@@ -5583,15 +5631,15 @@
       <c r="L65" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>653</v>
-      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="5" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -5630,15 +5678,15 @@
       <c r="L66" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M66" s="5" t="s">
-        <v>655</v>
-      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
+      <c r="S66" s="5" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -5677,15 +5725,15 @@
       <c r="L67" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M67" s="5" t="s">
-        <v>657</v>
-      </c>
+      <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="5"/>
+      <c r="S67" s="5" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
@@ -5724,15 +5772,15 @@
       <c r="L68" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="M68" s="5" t="s">
-        <v>660</v>
-      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="S68" s="5" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -5760,9 +5808,11 @@
         <v>661</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K69" s="5" t="s">
         <v>548</v>
       </c>
@@ -5803,9 +5853,11 @@
         <v>662</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K70" s="5" t="s">
         <v>548</v>
       </c>
@@ -5846,9 +5898,11 @@
         <v>663</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K71" s="5" t="s">
         <v>548</v>
       </c>
@@ -5889,9 +5943,11 @@
         <v>664</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K72" s="5" t="s">
         <v>548</v>
       </c>
@@ -5932,24 +5988,26 @@
         <v>665</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K73" s="5" t="s">
         <v>548</v>
       </c>
       <c r="L73" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="M73" s="5" t="s">
-        <v>610</v>
-      </c>
+      <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="5"/>
+      <c r="S73" s="5" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
@@ -6067,9 +6125,11 @@
         <v>668</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K76" s="5" t="s">
         <v>548</v>
       </c>
@@ -6110,9 +6170,11 @@
         <v>669</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K77" s="5" t="s">
         <v>548</v>
       </c>
@@ -6299,15 +6361,15 @@
       <c r="L81" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="M81" s="5" t="s">
-        <v>674</v>
-      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
+      <c r="S81" s="5" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
@@ -6346,15 +6408,15 @@
       <c r="L82" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="M82" s="5" t="s">
-        <v>676</v>
-      </c>
+      <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
+      <c r="S82" s="5" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
@@ -6438,15 +6500,15 @@
       <c r="L84" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M84" s="5" t="s">
-        <v>653</v>
-      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="5" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -6485,15 +6547,15 @@
       <c r="L85" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="M85" s="5" t="s">
-        <v>680</v>
-      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
+      <c r="S85" s="5" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
@@ -6521,24 +6583,26 @@
         <v>681</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K86" s="5" t="s">
         <v>548</v>
       </c>
       <c r="L86" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="M86" s="5" t="s">
-        <v>610</v>
-      </c>
+      <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
+      <c r="S86" s="5" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
@@ -6566,24 +6630,26 @@
         <v>682</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K87" s="5" t="s">
         <v>548</v>
       </c>
       <c r="L87" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="M87" s="5" t="s">
-        <v>610</v>
-      </c>
+      <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="5"/>
+      <c r="S87" s="5" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
@@ -6667,15 +6733,15 @@
       <c r="L89" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M89" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
+      <c r="S89" s="5" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -6759,15 +6825,15 @@
       <c r="L91" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M91" s="5" t="s">
-        <v>688</v>
-      </c>
+      <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="5"/>
+      <c r="S91" s="5" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
@@ -6896,15 +6962,15 @@
       <c r="L94" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M94" s="5" t="s">
-        <v>692</v>
-      </c>
+      <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="5"/>
+      <c r="S94" s="5" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
@@ -7022,9 +7088,11 @@
         <v>695</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K97" s="5" t="s">
         <v>548</v>
       </c>
@@ -7076,15 +7144,15 @@
       <c r="L98" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>697</v>
-      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
+      <c r="S98" s="5" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
@@ -7123,15 +7191,15 @@
       <c r="L99" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="M99" s="5" t="s">
-        <v>699</v>
-      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
+      <c r="S99" s="5" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
@@ -7204,9 +7272,11 @@
         <v>701</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J101" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K101" s="5" t="s">
         <v>548</v>
       </c>
@@ -7292,9 +7362,11 @@
         <v>703</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K103" s="5" t="s">
         <v>548</v>
       </c>
@@ -7335,9 +7407,11 @@
         <v>704</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K104" s="5" t="s">
         <v>548</v>
       </c>
@@ -7423,9 +7497,11 @@
         <v>706</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K106" s="5" t="s">
         <v>548</v>
       </c>
@@ -7556,9 +7632,11 @@
         <v>709</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K109" s="5" t="s">
         <v>548</v>
       </c>
@@ -7610,15 +7688,15 @@
       <c r="L110" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M110" s="5" t="s">
-        <v>610</v>
-      </c>
+      <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="5" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -7663,7 +7741,7 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="5"/>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -7702,15 +7780,15 @@
       <c r="L112" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M112" s="5" t="s">
-        <v>713</v>
-      </c>
+      <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="5" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -7749,15 +7827,15 @@
       <c r="L113" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="M113" s="5" t="s">
-        <v>653</v>
-      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="5" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -7796,15 +7874,15 @@
       <c r="L114" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>716</v>
-      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="5" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -7849,7 +7927,7 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="5"/>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -7888,15 +7966,15 @@
       <c r="L116" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M116" s="5" t="s">
-        <v>719</v>
-      </c>
+      <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="5" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -7941,7 +8019,7 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="5"/>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -7980,15 +8058,15 @@
       <c r="L118" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="M118" s="5" t="s">
-        <v>653</v>
-      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -8072,15 +8150,15 @@
       <c r="L120" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M120" s="5" t="s">
-        <v>723</v>
-      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
+      <c r="S120" s="5" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
@@ -8119,15 +8197,15 @@
       <c r="L121" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M121" s="5" t="s">
-        <v>725</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
+      <c r="S121" s="5" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
@@ -8155,9 +8233,11 @@
         <v>726</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J122" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K122" s="5" t="s">
         <v>548</v>
       </c>
@@ -8209,15 +8289,15 @@
       <c r="L123" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="M123" s="5" t="s">
-        <v>728</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -8290,24 +8370,26 @@
         <v>730</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="K125" s="5" t="s">
         <v>548</v>
       </c>
       <c r="L125" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="M125" s="5" t="s">
-        <v>731</v>
-      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
+      <c r="S125" s="5" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
@@ -8346,15 +8428,15 @@
       <c r="L126" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M126" s="5" t="s">
-        <v>733</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="5" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -8528,15 +8610,15 @@
       <c r="L130" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M130" s="5" t="s">
-        <v>738</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
+      <c r="S130" s="5" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
@@ -8575,15 +8657,15 @@
       <c r="L131" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M131" s="5" t="s">
-        <v>740</v>
-      </c>
+      <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="5" t="s">
+        <v>740</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S131"/>

--- a/sources/Finnish_data.xlsx
+++ b/sources/Finnish_data.xlsx
@@ -2624,7 +2624,7 @@
   <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2741,7 +2741,7 @@
         <v>538</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>8</v>
+        <v>625</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>539</v>
@@ -2925,7 +2925,7 @@
         <v>538</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>8</v>
+        <v>625</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>539</v>
